--- a/biology/Zoologie/Auguste_Jean_François_Grenier/Auguste_Jean_François_Grenier.xlsx
+++ b/biology/Zoologie/Auguste_Jean_François_Grenier/Auguste_Jean_François_Grenier.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Auguste_Jean_Fran%C3%A7ois_Grenier</t>
+          <t>Auguste_Jean_François_Grenier</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Auguste Jean François Grenier est un médecin et un entomologiste français, né le 22 septembre 1814 aux Andelys et mort le 13 juillet 1890 à Bagnères.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Auguste_Jean_Fran%C3%A7ois_Grenier</t>
+          <t>Auguste_Jean_François_Grenier</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il étudie à Rouen puis à Paris où il obtient son titre de docteur en médecine en 1842. Il ne se consacre à l’entomologie qu’entre 1857 et 1869, la guerre de 1870 mettant un terme à ses recherches. Il se consacre aux coléoptères notamment cavernicoles et constitue une intéressante collection comprenant notamment celle de Charles Nicolas Aubé (1802-1869) et de Jules Linder (1830-1869). Sa collection est conservée par la Société entomologique de France.
 </t>
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Auguste_Jean_Fran%C3%A7ois_Grenier</t>
+          <t>Auguste_Jean_François_Grenier</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -542,7 +556,9 @@
           <t>Sources</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Jean Lhoste (1987). Les Entomologistes français. 1750-1950. INRA Éditions : 351 p.
  Portail de l’histoire de la zoologie et de la botanique   Portail de l’entomologie   Portail de la zoologie                   </t>
